--- a/docs/source/index/tables/t1_overview_benchmarks.xlsx
+++ b/docs/source/index/tables/t1_overview_benchmarks.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Prediction of gamma-secretase substrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Breimann23c</t>
+    <t xml:space="preserve">Breimann24c</t>
   </si>
   <si>
     <t xml:space="preserve">1 (substrate), 0 (non-substrate)</t>
@@ -350,10 +350,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>

--- a/docs/source/index/tables/t1_overview_benchmarks.xlsx
+++ b/docs/source/index/tables/t1_overview_benchmarks.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Prediction of gamma-secretase substrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Breimann24c</t>
+    <t xml:space="preserve">Breimann25a</t>
   </si>
   <si>
     <t xml:space="preserve">1 (substrate), 0 (non-substrate)</t>
@@ -350,10 +350,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>
